--- a/docs/sprint_2/Daily Record.xlsx
+++ b/docs/sprint_2/Daily Record.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Decide which components in student part should be modified in the sprint 2</t>
   </si>
   <si>
-    <t>Discuss with Chenxi about integrating their components</t>
-  </si>
-  <si>
     <t>Work on algorithm</t>
   </si>
   <si>
@@ -124,6 +121,30 @@
   </si>
   <si>
     <t>Read existing code and do research about login part</t>
+  </si>
+  <si>
+    <t>Oct. 27</t>
+  </si>
+  <si>
+    <t>Read user stories to ensure everything goes well</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get progress doc done and record daily meeting </t>
+  </si>
+  <si>
+    <t>Start Implement the front end of TA dashboard</t>
+  </si>
+  <si>
+    <t>Work on student question List and discuss with Chengxi about integration</t>
+  </si>
+  <si>
+    <t>Discuss with Chengxi about integrating their components</t>
+  </si>
+  <si>
+    <t>Start Implement the back end of TA dashboard</t>
+  </si>
+  <si>
+    <t>Work on Admin login part and logout part</t>
   </si>
 </sst>
 </file>
@@ -450,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -510,13 +531,13 @@
         <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="63.75" x14ac:dyDescent="0.45">
@@ -536,13 +557,13 @@
         <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="63.75" x14ac:dyDescent="0.45">
@@ -562,13 +583,13 @@
         <v>24</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="51" x14ac:dyDescent="0.45">
@@ -585,16 +606,42 @@
         <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>32</v>
+    </row>
+    <row r="6" spans="1:8" ht="63.75" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/docs/sprint_2/Daily Record.xlsx
+++ b/docs/sprint_2/Daily Record.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -145,6 +145,27 @@
   </si>
   <si>
     <t>Work on Admin login part and logout part</t>
+  </si>
+  <si>
+    <t>Oct. 30</t>
+  </si>
+  <si>
+    <t>Read documents</t>
+  </si>
+  <si>
+    <t>Record daily meeting</t>
+  </si>
+  <si>
+    <t>Work on the front end of TA dashboard</t>
+  </si>
+  <si>
+    <t>Implement student list enable student add themselves to a particular question</t>
+  </si>
+  <si>
+    <t>Get integration done</t>
+  </si>
+  <si>
+    <t>Work on the backend of TA dashboard and question list</t>
   </si>
 </sst>
 </file>
@@ -471,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -644,6 +665,32 @@
         <v>41</v>
       </c>
     </row>
+    <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/sprint_2/Daily Record.xlsx
+++ b/docs/sprint_2/Daily Record.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -166,6 +166,24 @@
   </si>
   <si>
     <t>Work on the backend of TA dashboard and question list</t>
+  </si>
+  <si>
+    <t>Oct. 31</t>
+  </si>
+  <si>
+    <t>Read code pushed so far</t>
+  </si>
+  <si>
+    <t>Work on the front end of question list</t>
+  </si>
+  <si>
+    <t>Work on the backend of question list</t>
+  </si>
+  <si>
+    <t>Get student question list done</t>
+  </si>
+  <si>
+    <t>Test algorithm</t>
   </si>
 </sst>
 </file>
@@ -492,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -691,6 +709,32 @@
         <v>41</v>
       </c>
     </row>
+    <row r="8" spans="1:8" ht="38.25" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/sprint_2/Daily Record.xlsx
+++ b/docs/sprint_2/Daily Record.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -184,6 +184,21 @@
   </si>
   <si>
     <t>Test algorithm</t>
+  </si>
+  <si>
+    <t>Nov. 1</t>
+  </si>
+  <si>
+    <t>Check github content</t>
+  </si>
+  <si>
+    <t>Work on the backend of question list and fix bug</t>
+  </si>
+  <si>
+    <t>Work on the front end of question list and fix bug</t>
+  </si>
+  <si>
+    <t>Fix bug found so far</t>
   </si>
 </sst>
 </file>
@@ -510,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -735,6 +750,32 @@
         <v>41</v>
       </c>
     </row>
+    <row r="9" spans="1:8" ht="51" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/sprint_2/Daily Record.xlsx
+++ b/docs/sprint_2/Daily Record.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
   <si>
     <t>Name</t>
   </si>
@@ -199,6 +199,18 @@
   </si>
   <si>
     <t>Fix bug found so far</t>
+  </si>
+  <si>
+    <t>Nov. 2</t>
+  </si>
+  <si>
+    <t>Record daily meeting and look up code</t>
+  </si>
+  <si>
+    <t>Work on student class list page</t>
+  </si>
+  <si>
+    <t>Get admin login part and logout part done</t>
   </si>
 </sst>
 </file>
@@ -525,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -776,6 +788,32 @@
         <v>41</v>
       </c>
     </row>
+    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/sprint_2/Daily Record.xlsx
+++ b/docs/sprint_2/Daily Record.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
   <si>
     <t>Name</t>
   </si>
@@ -211,6 +211,24 @@
   </si>
   <si>
     <t>Get admin login part and logout part done</t>
+  </si>
+  <si>
+    <t>Nov. 3</t>
+  </si>
+  <si>
+    <t>Check github content and do merge</t>
+  </si>
+  <si>
+    <t>Get question list done, work on question detail page</t>
+  </si>
+  <si>
+    <t>Do research about animation</t>
+  </si>
+  <si>
+    <t>Work on Admin Dashboard</t>
+  </si>
+  <si>
+    <t>Integrate with Deqing</t>
   </si>
 </sst>
 </file>
@@ -537,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -807,11 +825,37 @@
       <c r="F10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G10" t="s">
-        <v>57</v>
+      <c r="G10" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/docs/sprint_2/Daily Record.xlsx
+++ b/docs/sprint_2/Daily Record.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
   <si>
     <t>Name</t>
   </si>
@@ -229,6 +229,27 @@
   </si>
   <si>
     <t>Integrate with Deqing</t>
+  </si>
+  <si>
+    <t>Nov. 6</t>
+  </si>
+  <si>
+    <t>Check github content and prepare to find user to test</t>
+  </si>
+  <si>
+    <t>Record daily meeting and check test case</t>
+  </si>
+  <si>
+    <t>Do unit test for the javascript part</t>
+  </si>
+  <si>
+    <t>Fix some bugs</t>
+  </si>
+  <si>
+    <t>Fix bugs and do unit test</t>
+  </si>
+  <si>
+    <t>Get Admin Dashboard done</t>
   </si>
 </sst>
 </file>
@@ -555,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -858,6 +879,32 @@
         <v>68</v>
       </c>
     </row>
+    <row r="12" spans="1:8" ht="51" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/sprint_2/Daily Record.xlsx
+++ b/docs/sprint_2/Daily Record.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="85">
   <si>
     <t>Name</t>
   </si>
@@ -250,6 +250,30 @@
   </si>
   <si>
     <t>Get Admin Dashboard done</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nov. 7</t>
+  </si>
+  <si>
+    <t>Do unit test and fix bug</t>
+  </si>
+  <si>
+    <t>Fix bugs</t>
+  </si>
+  <si>
+    <t>Do refactor about the algorithm</t>
+  </si>
+  <si>
+    <t>Do unit test</t>
+  </si>
+  <si>
+    <t>Check existing test code and plan to do unit test</t>
+  </si>
+  <si>
+    <t>Nov. 8</t>
+  </si>
+  <si>
+    <t>Record daily meeting and read source code</t>
   </si>
 </sst>
 </file>
@@ -576,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -905,6 +929,58 @@
         <v>76</v>
       </c>
     </row>
+    <row r="13" spans="1:8" ht="51" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="51" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
